--- a/Data/data_pest/pest_parameters_otorowiri.xlsx
+++ b/Data/data_pest/pest_parameters_otorowiri.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00105010\Projects\Otorowiri\data\data_pest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF0D37-223D-4BCB-A052-0450A5F701FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AFB22C-5388-4EC3-B659-6363D661AA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7F6BCE3B-8B9E-4CEA-AE29-882663216BF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{7F6BCE3B-8B9E-4CEA-AE29-882663216BF0}"/>
   </bookViews>
   <sheets>
     <sheet name="pars" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
   <si>
     <t>HK</t>
   </si>
@@ -98,9 +98,6 @@
     <t>ss</t>
   </si>
   <si>
-    <t>river_cond</t>
-  </si>
-  <si>
     <t>SY</t>
   </si>
   <si>
@@ -135,6 +132,12 @@
   </si>
   <si>
     <t>evt_nonwoody_depth</t>
+  </si>
+  <si>
+    <t>river_depth</t>
+  </si>
+  <si>
+    <t>river_width</t>
   </si>
 </sst>
 </file>
@@ -164,7 +167,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +183,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -213,13 +210,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,21 +553,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54918422-19C0-4D03-86E9-066F484E36AA}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -608,7 +605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,12 +613,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="4">
         <v>8</v>
       </c>
       <c r="F2" s="1">
@@ -646,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -654,12 +651,12 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>0.01</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.1</v>
       </c>
       <c r="F3" s="1">
@@ -684,9 +681,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -697,7 +694,7 @@
       <c r="D4" s="1">
         <v>0.05</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="4">
         <v>0.1</v>
       </c>
       <c r="F4" s="1">
@@ -710,21 +707,21 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -735,7 +732,7 @@
       <c r="D5" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>1E-4</v>
       </c>
       <c r="F5" s="1">
@@ -748,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="1">
         <v>1</v>
@@ -760,7 +757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,12 +765,12 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="4">
         <v>0.01</v>
       </c>
       <c r="F6" s="1">
@@ -798,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -806,12 +803,12 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>0.01</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>0.06</v>
       </c>
       <c r="F7" s="1">
@@ -836,20 +833,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1">
         <v>0.1</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="4">
         <v>0.6</v>
       </c>
       <c r="F8" s="1">
@@ -862,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1">
         <v>1</v>
@@ -874,20 +871,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1">
         <v>0.8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="4">
         <v>1.3</v>
       </c>
       <c r="F9" s="1">
@@ -900,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="1">
         <v>1</v>
@@ -912,20 +909,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>5</v>
       </c>
       <c r="F10" s="1">
@@ -938,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
@@ -950,20 +947,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1">
         <v>0.1</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>2</v>
       </c>
       <c r="F11" s="1">
@@ -976,7 +973,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1">
         <v>1</v>
@@ -988,41 +985,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
         <v>20</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5">
-        <v>300</v>
-      </c>
-      <c r="F12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="L12" s="1">
+      <c r="H12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="5">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
         <v>1</v>
       </c>
     </row>
